--- a/data/trans_orig/P05A03-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P05A03-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>381676</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>362417</v>
+        <v>364177</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>397227</v>
+        <v>397420</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8155166886818336</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7743646704751946</v>
+        <v>0.7781270754147672</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8487432645337796</v>
+        <v>0.8491553426001296</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>232</v>
@@ -765,19 +765,19 @@
         <v>236649</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>222031</v>
+        <v>221900</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>249902</v>
+        <v>251213</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7798889706479514</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7317148484683677</v>
+        <v>0.7312823278531677</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8235664225527609</v>
+        <v>0.8278857579991807</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>599</v>
@@ -786,19 +786,19 @@
         <v>618325</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>594274</v>
+        <v>595993</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>638856</v>
+        <v>640278</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8015031621654146</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7703263340673133</v>
+        <v>0.7725554086059514</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8281159365694875</v>
+        <v>0.8299594675358313</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>68138</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>53894</v>
+        <v>54108</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>84932</v>
+        <v>85438</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1455873722721864</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1151539994920961</v>
+        <v>0.1156119505949733</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1814714494955398</v>
+        <v>0.1825522932892554</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>54</v>
@@ -836,19 +836,19 @@
         <v>57421</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>44889</v>
+        <v>43932</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>71504</v>
+        <v>71920</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1892329010278719</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.147932657089644</v>
+        <v>0.1447804109408097</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2356447159076741</v>
+        <v>0.2370166429235935</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>120</v>
@@ -857,19 +857,19 @@
         <v>125558</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>105594</v>
+        <v>104345</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>147306</v>
+        <v>146167</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1627545614241625</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1368762220284908</v>
+        <v>0.1352572463213533</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1909451647230068</v>
+        <v>0.1894689730825771</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>18204</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10657</v>
+        <v>11172</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27983</v>
+        <v>28680</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03889593904598004</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02277052982635941</v>
+        <v>0.02387091861202087</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05979086267182713</v>
+        <v>0.06127963955398498</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -907,19 +907,19 @@
         <v>9370</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4102</v>
+        <v>5007</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16675</v>
+        <v>16750</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03087812832417672</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01351979961705546</v>
+        <v>0.01650177549262228</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05495280788835459</v>
+        <v>0.05520106104906251</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>26</v>
@@ -928,19 +928,19 @@
         <v>27574</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18301</v>
+        <v>17882</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>39990</v>
+        <v>39238</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03574227641042291</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02372233659409629</v>
+        <v>0.02317892955854075</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0518365945926508</v>
+        <v>0.05086189450170123</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>292849</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>278186</v>
+        <v>277409</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>306880</v>
+        <v>307382</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8093996747258932</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7688724283681715</v>
+        <v>0.7667248653755417</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8481793938990568</v>
+        <v>0.8495679918733061</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>298</v>
@@ -1053,19 +1053,19 @@
         <v>303679</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>287805</v>
+        <v>288409</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>317942</v>
+        <v>318781</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8210668117830409</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7781476581739555</v>
+        <v>0.7797804325356886</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8596298661452796</v>
+        <v>0.8618993606286323</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>577</v>
@@ -1074,19 +1074,19 @@
         <v>596528</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>575952</v>
+        <v>572059</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>618071</v>
+        <v>615434</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8152974159437801</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7871752902346433</v>
+        <v>0.7818545432089924</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.844741216354288</v>
+        <v>0.8411371125897046</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>60191</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>47099</v>
+        <v>47028</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>74548</v>
+        <v>74843</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1663616131414888</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1301755390633829</v>
+        <v>0.1299787617703925</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2060406344177771</v>
+        <v>0.2068560119352859</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>50</v>
@@ -1124,19 +1124,19 @@
         <v>52267</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>39340</v>
+        <v>40090</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>67896</v>
+        <v>66101</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1413159708191286</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1063636437622896</v>
+        <v>0.1083914098362944</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1835729949459525</v>
+        <v>0.1787181124256174</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>109</v>
@@ -1145,19 +1145,19 @@
         <v>112458</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>91523</v>
+        <v>95878</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>131670</v>
+        <v>133204</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1537010335726096</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1250882003445309</v>
+        <v>0.1310394593187041</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1799589287149987</v>
+        <v>0.1820553272730848</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>8770</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3973</v>
+        <v>3995</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16727</v>
+        <v>17146</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02423871213261794</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01097953874874269</v>
+        <v>0.01104293718578153</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04623132356513295</v>
+        <v>0.0473898899378969</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1195,19 +1195,19 @@
         <v>13913</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7504</v>
+        <v>7423</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23481</v>
+        <v>22819</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03761721739783049</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02028888312738675</v>
+        <v>0.02007070882216625</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06348501837027246</v>
+        <v>0.06169549556508805</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -1216,19 +1216,19 @@
         <v>22683</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14495</v>
+        <v>14548</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34653</v>
+        <v>35265</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03100155048361022</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01981147901495964</v>
+        <v>0.01988282043383652</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04736180815738705</v>
+        <v>0.04819786893289773</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>436083</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>416862</v>
+        <v>416905</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>453625</v>
+        <v>455050</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8080505867359533</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7724351552591509</v>
+        <v>0.7725142649798187</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8405547084192957</v>
+        <v>0.843196158667461</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>139</v>
@@ -1341,19 +1341,19 @@
         <v>140952</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>131065</v>
+        <v>128653</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>149995</v>
+        <v>149106</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8459757858974025</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7866350388439014</v>
+        <v>0.7721571525507529</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9002474375798895</v>
+        <v>0.8949144325270626</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>567</v>
@@ -1362,19 +1362,19 @@
         <v>577035</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>555203</v>
+        <v>554411</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>597346</v>
+        <v>595381</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8169972205178506</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7860859007395703</v>
+        <v>0.7849647818595158</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8457544820611232</v>
+        <v>0.8429720541560131</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>90196</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74373</v>
+        <v>73796</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>108571</v>
+        <v>109659</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1671315929841464</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1378120637911783</v>
+        <v>0.1367425469632566</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2011799222260417</v>
+        <v>0.2031950303845818</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1412,19 +1412,19 @@
         <v>20021</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12188</v>
+        <v>13000</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29345</v>
+        <v>31113</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1201636489158928</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07315190779618341</v>
+        <v>0.07802562116345187</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1761275959803845</v>
+        <v>0.1867353216589437</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>108</v>
@@ -1433,19 +1433,19 @@
         <v>110217</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>91934</v>
+        <v>91583</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>130931</v>
+        <v>129259</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1560517567708025</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1301652780401902</v>
+        <v>0.1296686861652064</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1853784566157045</v>
+        <v>0.1830122324437566</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>13394</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7364</v>
+        <v>7000</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23664</v>
+        <v>23489</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0248178202799003</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01364486714574825</v>
+        <v>0.01297031802179762</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04384898792938053</v>
+        <v>0.04352433428013229</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -1483,19 +1483,19 @@
         <v>5642</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2173</v>
+        <v>2208</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12201</v>
+        <v>11325</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03386056518670466</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01304276900734643</v>
+        <v>0.01324959397027042</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07322772001494582</v>
+        <v>0.06796927560876351</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -1504,19 +1504,19 @@
         <v>19035</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11483</v>
+        <v>11472</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>29079</v>
+        <v>30981</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0269510227113468</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01625779918250557</v>
+        <v>0.01624267191826406</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04117203041963689</v>
+        <v>0.04386516916933175</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>1033528</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1005777</v>
+        <v>1005083</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1058848</v>
+        <v>1058006</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8393678976902278</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8168300176178804</v>
+        <v>0.8162663632063202</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8599308762343256</v>
+        <v>0.859247230072403</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>562</v>
@@ -1629,19 +1629,19 @@
         <v>577495</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>553268</v>
+        <v>556300</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>596961</v>
+        <v>597324</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8134223809798847</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.779297752650942</v>
+        <v>0.7835681358091142</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8408410408735594</v>
+        <v>0.8413517527223354</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1583</v>
@@ -1650,19 +1650,19 @@
         <v>1611023</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1575635</v>
+        <v>1575439</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1641585</v>
+        <v>1644106</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8298791780949765</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8116502289185024</v>
+        <v>0.8115489513126196</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8456227035158698</v>
+        <v>0.8469213293578466</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>166127</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>143206</v>
+        <v>142978</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>191966</v>
+        <v>193980</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1349182162210688</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1163027654122162</v>
+        <v>0.116117978178353</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.155903229723016</v>
+        <v>0.1575388065638379</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>103</v>
@@ -1700,19 +1700,19 @@
         <v>108335</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>89479</v>
+        <v>91181</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>130681</v>
+        <v>129334</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1525939517713349</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.126035042761167</v>
+        <v>0.1284324067678126</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.184068440355327</v>
+        <v>0.182171431745144</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>267</v>
@@ -1721,19 +1721,19 @@
         <v>274462</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>242811</v>
+        <v>243775</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>306409</v>
+        <v>308488</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1413825352843092</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1250781854921393</v>
+        <v>0.1255746116616894</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1578391894122945</v>
+        <v>0.158910171376768</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>31662</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21992</v>
+        <v>21957</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>44613</v>
+        <v>44976</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02571388608870337</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0178608706120766</v>
+        <v>0.01783196833285586</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03623220903793791</v>
+        <v>0.03652654426834487</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>25</v>
@@ -1771,19 +1771,19 @@
         <v>24127</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15849</v>
+        <v>15544</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>35092</v>
+        <v>35325</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03398366724878035</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02232346321325043</v>
+        <v>0.02189484677774024</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04942898799350862</v>
+        <v>0.04975674780130226</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>57</v>
@@ -1792,19 +1792,19 @@
         <v>55789</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>42249</v>
+        <v>42786</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>70361</v>
+        <v>71936</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02873828662071442</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02176348086836877</v>
+        <v>0.0220399307017019</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0362447491820232</v>
+        <v>0.03705621470587635</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>286812</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>272033</v>
+        <v>271757</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>300097</v>
+        <v>300561</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8266791104501878</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7840823061617833</v>
+        <v>0.7832864480942405</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.864971308245198</v>
+        <v>0.8663067445261421</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>438</v>
@@ -1917,19 +1917,19 @@
         <v>459806</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>439454</v>
+        <v>439422</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>476654</v>
+        <v>475240</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8142626702200747</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7782211674252026</v>
+        <v>0.7781645940055375</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.844097945767817</v>
+        <v>0.8415948393389276</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>714</v>
@@ -1938,19 +1938,19 @@
         <v>746618</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>720927</v>
+        <v>721785</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>768577</v>
+        <v>769959</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8189880476535017</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7908068119186682</v>
+        <v>0.7917473706745249</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8430748426092279</v>
+        <v>0.8445914175754923</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>47691</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>36097</v>
+        <v>35370</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>61962</v>
+        <v>61033</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1374585276898082</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1040426026785171</v>
+        <v>0.1019483077550916</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1785918079223759</v>
+        <v>0.1759160187528291</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>84</v>
@@ -1988,19 +1988,19 @@
         <v>89786</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>74502</v>
+        <v>75012</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>109905</v>
+        <v>108273</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.159000125714382</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1319347751806056</v>
+        <v>0.1328373568488888</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1946294727891428</v>
+        <v>0.1917391978289073</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>131</v>
@@ -2009,19 +2009,19 @@
         <v>137476</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>118214</v>
+        <v>116328</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>162138</v>
+        <v>160247</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1508019481933881</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1296719955304355</v>
+        <v>0.127604023345875</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1778545704161014</v>
+        <v>0.1757794743405031</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>12442</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6734</v>
+        <v>6625</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20155</v>
+        <v>20262</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03586236186000395</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01941079694636812</v>
+        <v>0.01909559383701167</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05809302886612069</v>
+        <v>0.05840201750783675</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -2059,19 +2059,19 @@
         <v>15098</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9217</v>
+        <v>8346</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>25195</v>
+        <v>25817</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02673720406554327</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0163218899022179</v>
+        <v>0.0147799531692796</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04461698085576664</v>
+        <v>0.04571967335897341</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>26</v>
@@ -2080,19 +2080,19 @@
         <v>27540</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18753</v>
+        <v>18322</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>39415</v>
+        <v>38875</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03021000415311014</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02057070830121276</v>
+        <v>0.02009813266093451</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04323512760232918</v>
+        <v>0.04264319835935199</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>248467</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>235665</v>
+        <v>233952</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>260751</v>
+        <v>258530</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.839648327108427</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7963845036389978</v>
+        <v>0.7905982863783277</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8811582019447536</v>
+        <v>0.8736553469939004</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1034</v>
@@ -2205,19 +2205,19 @@
         <v>1038945</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1013056</v>
+        <v>1012398</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1063180</v>
+        <v>1064582</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8339477655399385</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8131674861905255</v>
+        <v>0.8126393950950461</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8534008217234885</v>
+        <v>0.8545264128082235</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1289</v>
@@ -2226,19 +2226,19 @@
         <v>1287412</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1259066</v>
+        <v>1258467</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1316109</v>
+        <v>1314560</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.8350419234233025</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8166565024188427</v>
+        <v>0.8162679535624199</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.853655685338779</v>
+        <v>0.8526506606760808</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>42133</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30504</v>
+        <v>32405</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>53983</v>
+        <v>55867</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1423815582304298</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1030840600549917</v>
+        <v>0.1095068913180768</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1824239147093711</v>
+        <v>0.1887924411542987</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>172</v>
@@ -2276,19 +2276,19 @@
         <v>176823</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>154256</v>
+        <v>152552</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>202240</v>
+        <v>202104</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1419336595753483</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1238193331134364</v>
+        <v>0.1224515007340832</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1623358315266229</v>
+        <v>0.1622262952537709</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>215</v>
@@ -2297,19 +2297,19 @@
         <v>218956</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>191288</v>
+        <v>193218</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>245235</v>
+        <v>246807</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1420196286221725</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.124073595874989</v>
+        <v>0.1253254554863996</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1590647107851644</v>
+        <v>0.1600843831557</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>5318</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1856</v>
+        <v>2541</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>10991</v>
+        <v>11595</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01797011466114317</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006273328456954143</v>
+        <v>0.008586773682920179</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03714078209721952</v>
+        <v>0.03918349800621897</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>29</v>
@@ -2347,19 +2347,19 @@
         <v>30047</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>20145</v>
+        <v>20932</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>41817</v>
+        <v>41244</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02411857488471312</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01616994857845053</v>
+        <v>0.0168016025121105</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03356560004898431</v>
+        <v>0.03310633529167048</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>35</v>
@@ -2368,19 +2368,19 @@
         <v>35365</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>25114</v>
+        <v>25023</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>49542</v>
+        <v>49153</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02293844795452494</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01628950820084601</v>
+        <v>0.01623057738602095</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0321338090681928</v>
+        <v>0.03188146929000487</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>2679416</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2635026</v>
+        <v>2635833</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2720572</v>
+        <v>2721338</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.826041668714763</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8123568131769784</v>
+        <v>0.8126056248293075</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8387297373278619</v>
+        <v>0.838966126840421</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2703</v>
@@ -2493,19 +2493,19 @@
         <v>2757525</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2710039</v>
+        <v>2713701</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2803940</v>
+        <v>2804723</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8206005205188533</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8064692717484052</v>
+        <v>0.8075589475824916</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8344128849110334</v>
+        <v>0.8346457299275445</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5329</v>
@@ -2514,19 +2514,19 @@
         <v>5436942</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5371798</v>
+        <v>5375734</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5497223</v>
+        <v>5502619</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8232730220012544</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8134088604018572</v>
+        <v>0.8140047949252354</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8324009690512593</v>
+        <v>0.833217961985809</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>474476</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>436721</v>
+        <v>437892</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>516383</v>
+        <v>517167</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1462770622611974</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1346373701084432</v>
+        <v>0.1349985163445495</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1591965561198605</v>
+        <v>0.1594384245064145</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>482</v>
@@ -2564,19 +2564,19 @@
         <v>504653</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>464418</v>
+        <v>462751</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>551361</v>
+        <v>545685</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1501774951579635</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1382042817610529</v>
+        <v>0.1377082064861947</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1640772949100329</v>
+        <v>0.1623882125042155</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>950</v>
@@ -2585,19 +2585,19 @@
         <v>979129</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>922240</v>
+        <v>918323</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1040869</v>
+        <v>1038957</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1482617390852931</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1396474414362003</v>
+        <v>0.1390544475192575</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1576105670663213</v>
+        <v>0.1573210864896974</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>89789</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>71703</v>
+        <v>73901</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>110174</v>
+        <v>110650</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02768126902403961</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02210530006626868</v>
+        <v>0.02278296770113875</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03396587596618982</v>
+        <v>0.03411239910542255</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>94</v>
@@ -2635,19 +2635,19 @@
         <v>98197</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>80562</v>
+        <v>81145</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>121335</v>
+        <v>121355</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02922198432318315</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02397420890380699</v>
+        <v>0.02414751472819919</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0361075559539209</v>
+        <v>0.03611352993327403</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>182</v>
@@ -2656,19 +2656,19 @@
         <v>187986</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>162202</v>
+        <v>161359</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>216744</v>
+        <v>216697</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02846523891345245</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02456096349432607</v>
+        <v>0.02443323864330916</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03281985491711566</v>
+        <v>0.03281274222307935</v>
       </c>
     </row>
     <row r="31">
@@ -3002,19 +3002,19 @@
         <v>384644</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>370117</v>
+        <v>369434</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>397542</v>
+        <v>397960</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8817166507408846</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.848415477712502</v>
+        <v>0.8468490369589284</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9112805712133969</v>
+        <v>0.9122396149967099</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>241</v>
@@ -3023,19 +3023,19 @@
         <v>266352</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>251672</v>
+        <v>251786</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>278778</v>
+        <v>278363</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8667539145787905</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8189844748962396</v>
+        <v>0.8193547290288248</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9071904891347251</v>
+        <v>0.9058401043733795</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>595</v>
@@ -3044,19 +3044,19 @@
         <v>650995</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>630857</v>
+        <v>630530</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>669246</v>
+        <v>669863</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8755327203836629</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8484484499930606</v>
+        <v>0.848008540284426</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9000786528314803</v>
+        <v>0.9009080319473144</v>
       </c>
     </row>
     <row r="5">
@@ -3073,19 +3073,19 @@
         <v>40435</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28912</v>
+        <v>29416</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>54464</v>
+        <v>55875</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09268772738181122</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06627486586154981</v>
+        <v>0.06743110888977388</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1248466307840463</v>
+        <v>0.1280827416567671</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>27</v>
@@ -3094,19 +3094,19 @@
         <v>32792</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20528</v>
+        <v>22591</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45926</v>
+        <v>47094</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1067122840295466</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06680266676779541</v>
+        <v>0.07351482691760571</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1494508189669672</v>
+        <v>0.153250519972062</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>66</v>
@@ -3115,19 +3115,19 @@
         <v>73227</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>58122</v>
+        <v>57436</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>93870</v>
+        <v>93137</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09848391871078856</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07816906492655064</v>
+        <v>0.07724619341005433</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1262469668187179</v>
+        <v>0.1252617987384788</v>
       </c>
     </row>
     <row r="6">
@@ -3144,19 +3144,19 @@
         <v>11166</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5595</v>
+        <v>5187</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20695</v>
+        <v>20000</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02559562187730419</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0128255467671908</v>
+        <v>0.01188980197082132</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0474386849518021</v>
+        <v>0.04584597987686245</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -3165,19 +3165,19 @@
         <v>8154</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3623</v>
+        <v>3552</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15180</v>
+        <v>15911</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02653380139166298</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0117887971127534</v>
+        <v>0.01155863111771323</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0493978036737493</v>
+        <v>0.05177820926884864</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>18</v>
@@ -3186,19 +3186,19 @@
         <v>19320</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11957</v>
+        <v>11741</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>30551</v>
+        <v>30658</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02598336090554853</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01608099469900482</v>
+        <v>0.0157905440061496</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04108888928014906</v>
+        <v>0.04123202090004702</v>
       </c>
     </row>
     <row r="7">
@@ -3290,19 +3290,19 @@
         <v>348738</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>330974</v>
+        <v>330052</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>363894</v>
+        <v>363963</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8451376062522781</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8020873430142572</v>
+        <v>0.7998537567103975</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8818659998982685</v>
+        <v>0.8820336839044142</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>260</v>
@@ -3311,19 +3311,19 @@
         <v>289900</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>275010</v>
+        <v>275663</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>300154</v>
+        <v>301293</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8696994581027061</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8250274212352204</v>
+        <v>0.826987543948962</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9004608460496872</v>
+        <v>0.9038758103429083</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>576</v>
@@ -3332,19 +3332,19 @@
         <v>638639</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>617039</v>
+        <v>616628</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>659199</v>
+        <v>659534</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8561129093025422</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.82715736493688</v>
+        <v>0.8266062561081094</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8836739266640696</v>
+        <v>0.8841228220230142</v>
       </c>
     </row>
     <row r="9">
@@ -3361,19 +3361,19 @@
         <v>52696</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>39576</v>
+        <v>39692</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>68189</v>
+        <v>69225</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1277053802462686</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0959085997538049</v>
+        <v>0.09619098250935455</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1652510589263851</v>
+        <v>0.1677618791023339</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>37</v>
@@ -3382,19 +3382,19 @@
         <v>38847</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>29468</v>
+        <v>27807</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>52194</v>
+        <v>52299</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1165416664891462</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08840258495804199</v>
+        <v>0.08342058441858095</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.156582719354442</v>
+        <v>0.1568967124199624</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>84</v>
@@ -3403,19 +3403,19 @@
         <v>91544</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>73637</v>
+        <v>74719</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>112708</v>
+        <v>111996</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1227169476803142</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09871286011100651</v>
+        <v>0.1001625754783057</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1510879409813569</v>
+        <v>0.1501341588869565</v>
       </c>
     </row>
     <row r="10">
@@ -3432,19 +3432,19 @@
         <v>11206</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4303</v>
+        <v>4846</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22031</v>
+        <v>22269</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02715701350145333</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01042880341606147</v>
+        <v>0.01174505579145911</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0533892299768359</v>
+        <v>0.05396621722615612</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -3453,19 +3453,19 @@
         <v>4586</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11313</v>
+        <v>11774</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01375887540814771</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002917872292044185</v>
+        <v>0.00289429756661201</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03393968655648808</v>
+        <v>0.03532143374664014</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -3474,19 +3474,19 @@
         <v>15792</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8423</v>
+        <v>8631</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28818</v>
+        <v>29716</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0211701430171435</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0112906402152106</v>
+        <v>0.01156969703422645</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03863136330141596</v>
+        <v>0.03983532002865358</v>
       </c>
     </row>
     <row r="11">
@@ -3578,19 +3578,19 @@
         <v>545682</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>528590</v>
+        <v>525166</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>562455</v>
+        <v>560595</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8745629726890847</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8471694408571795</v>
+        <v>0.841682871788336</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9014452797278156</v>
+        <v>0.8984649083793265</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>213</v>
@@ -3599,19 +3599,19 @@
         <v>227350</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>216471</v>
+        <v>215116</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>237030</v>
+        <v>236536</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8906892537625316</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8480685511338653</v>
+        <v>0.8427584098156716</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9286130491836824</v>
+        <v>0.9266781747755347</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>725</v>
@@ -3620,19 +3620,19 @@
         <v>773033</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>752055</v>
+        <v>751191</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>792476</v>
+        <v>793206</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8792448071433379</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8553841780692634</v>
+        <v>0.8544017820359435</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9013596336859866</v>
+        <v>0.902190169763705</v>
       </c>
     </row>
     <row r="13">
@@ -3649,19 +3649,19 @@
         <v>64214</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>50570</v>
+        <v>50457</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80814</v>
+        <v>81460</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1029163692634407</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08104836913427847</v>
+        <v>0.08086695051857314</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.129520089515274</v>
+        <v>0.1305553300186951</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -3670,19 +3670,19 @@
         <v>23003</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14281</v>
+        <v>15140</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32433</v>
+        <v>33555</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09012045614458337</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05594921614925281</v>
+        <v>0.05931499097089529</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1270640468519298</v>
+        <v>0.1314602217514877</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>82</v>
@@ -3691,19 +3691,19 @@
         <v>87218</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>70592</v>
+        <v>69582</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>107511</v>
+        <v>108029</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09920141808277828</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08029066462933981</v>
+        <v>0.07914250535839433</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1222827667113367</v>
+        <v>0.1228722331351361</v>
       </c>
     </row>
     <row r="14">
@@ -3720,19 +3720,19 @@
         <v>14052</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7879</v>
+        <v>7723</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23236</v>
+        <v>22987</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0225206580474746</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01262702656580888</v>
+        <v>0.01237819739493937</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0372409872543386</v>
+        <v>0.03684192790468808</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -3741,19 +3741,19 @@
         <v>4898</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1832</v>
+        <v>1913</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15431</v>
+        <v>14141</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01919029009288502</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.007175302795412905</v>
+        <v>0.007496068404803375</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06045251061955606</v>
+        <v>0.05540028122338264</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>18</v>
@@ -3762,19 +3762,19 @@
         <v>18950</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11571</v>
+        <v>11483</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>29672</v>
+        <v>29023</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0215537747738839</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0131607668859723</v>
+        <v>0.01306017167367612</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03374836468324165</v>
+        <v>0.03301030673671031</v>
       </c>
     </row>
     <row r="15">
@@ -3866,19 +3866,19 @@
         <v>1022486</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>999569</v>
+        <v>998663</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1043977</v>
+        <v>1043206</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8874275583874087</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8675379959987821</v>
+        <v>0.8667514888899663</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9060801487099672</v>
+        <v>0.9054104713894024</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>602</v>
@@ -3887,19 +3887,19 @@
         <v>646884</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>624079</v>
+        <v>625806</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>666615</v>
+        <v>664983</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.851553740295326</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8215339387613274</v>
+        <v>0.8238069129903446</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.877528244296877</v>
+        <v>0.8753800628743507</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1560</v>
@@ -3908,19 +3908,19 @@
         <v>1669370</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1637607</v>
+        <v>1637153</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1698824</v>
+        <v>1701316</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8731734605174419</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8565598872009192</v>
+        <v>0.8563225092980771</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8885799146691115</v>
+        <v>0.8898831378438627</v>
       </c>
     </row>
     <row r="17">
@@ -3937,19 +3937,19 @@
         <v>99848</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>81605</v>
+        <v>81667</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>119998</v>
+        <v>122334</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08665918899970508</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07082562387406227</v>
+        <v>0.07087945400755212</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1041478904662643</v>
+        <v>0.1061754362042132</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>85</v>
@@ -3958,19 +3958,19 @@
         <v>91720</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>73266</v>
+        <v>74847</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>111307</v>
+        <v>111389</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1207390137144382</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09644696198776663</v>
+        <v>0.09852776699383459</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1465238176059148</v>
+        <v>0.1466314474991965</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>176</v>
@@ -3979,19 +3979,19 @@
         <v>191567</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>166195</v>
+        <v>166649</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>220667</v>
+        <v>220787</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1002004617916951</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0869290315866266</v>
+        <v>0.08716691971877939</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1154212917996919</v>
+        <v>0.1154841108369381</v>
       </c>
     </row>
     <row r="18">
@@ -4008,19 +4008,19 @@
         <v>29857</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>20798</v>
+        <v>19143</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>43123</v>
+        <v>42828</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02591325261288622</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01805040206535431</v>
+        <v>0.01661480662803405</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03742723725933284</v>
+        <v>0.03717077138005281</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -4029,19 +4029,19 @@
         <v>21048</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12302</v>
+        <v>12370</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>34449</v>
+        <v>34855</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02770724599023578</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01619368123311047</v>
+        <v>0.01628342442383069</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04534828491948927</v>
+        <v>0.04588261724858878</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>44</v>
@@ -4050,19 +4050,19 @@
         <v>50905</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>37916</v>
+        <v>35988</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>68574</v>
+        <v>68698</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02662607769086298</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01983241030335868</v>
+        <v>0.01882376381763437</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0358680692827153</v>
+        <v>0.03593312609050805</v>
       </c>
     </row>
     <row r="19">
@@ -4154,19 +4154,19 @@
         <v>451514</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>435983</v>
+        <v>435309</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>464048</v>
+        <v>464680</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8880687797826228</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8575218749399289</v>
+        <v>0.8561970973015399</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9127227476247278</v>
+        <v>0.9139656559430701</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>622</v>
@@ -4175,19 +4175,19 @@
         <v>674041</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>655861</v>
+        <v>654825</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>690267</v>
+        <v>691048</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8964305459227407</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8722519486405976</v>
+        <v>0.8708739492279363</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9180094894672627</v>
+        <v>0.919048850954691</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1051</v>
@@ -4196,19 +4196,19 @@
         <v>1125555</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1101554</v>
+        <v>1100636</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1146312</v>
+        <v>1145412</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8930574009228489</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8740139998232516</v>
+        <v>0.8732853211579448</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.909526333990471</v>
+        <v>0.9088123669675612</v>
       </c>
     </row>
     <row r="21">
@@ -4225,19 +4225,19 @@
         <v>47567</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>36205</v>
+        <v>36190</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>61562</v>
+        <v>62438</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09355749238562126</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0712104531904033</v>
+        <v>0.07118145003384328</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1210836675681499</v>
+        <v>0.1228068589946873</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>62</v>
@@ -4246,19 +4246,19 @@
         <v>67755</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>53360</v>
+        <v>52559</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>88639</v>
+        <v>86323</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09010951633967679</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07096473854328185</v>
+        <v>0.0698996912690009</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.11788355543936</v>
+        <v>0.1148042759713954</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>109</v>
@@ -4267,19 +4267,19 @@
         <v>115322</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>95046</v>
+        <v>96761</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>137951</v>
+        <v>137727</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09150043339765615</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07541266760468403</v>
+        <v>0.07677361865020926</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1094556794355316</v>
+        <v>0.1092780045844518</v>
       </c>
     </row>
     <row r="22">
@@ -4296,19 +4296,19 @@
         <v>9342</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4157</v>
+        <v>4499</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17303</v>
+        <v>16240</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01837372783175593</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00817612076529808</v>
+        <v>0.00884961142700255</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03403282200660891</v>
+        <v>0.03194276560640974</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -4317,19 +4317,19 @@
         <v>10121</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4963</v>
+        <v>5021</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18189</v>
+        <v>17411</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0134599377375825</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006601038989208901</v>
+        <v>0.006677295534480873</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02419020475042248</v>
+        <v>0.02315553848114524</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>19</v>
@@ -4338,19 +4338,19 @@
         <v>19462</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11980</v>
+        <v>12122</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>30011</v>
+        <v>30746</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01544216567949492</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00950548248223854</v>
+        <v>0.009618101605622469</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02381164782409908</v>
+        <v>0.02439532233984081</v>
       </c>
     </row>
     <row r="23">
@@ -4442,19 +4442,19 @@
         <v>226958</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>214125</v>
+        <v>214379</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>236532</v>
+        <v>237333</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.8634845606769624</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8146609712971942</v>
+        <v>0.8156251001729804</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8999075955801508</v>
+        <v>0.902956261218133</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>902</v>
@@ -4463,19 +4463,19 @@
         <v>958650</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>933259</v>
+        <v>934947</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>978787</v>
+        <v>980453</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8753083695208472</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.852124480630112</v>
+        <v>0.8536660785161254</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8936944565520326</v>
+        <v>0.8952158969429356</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1128</v>
@@ -4484,19 +4484,19 @@
         <v>1185608</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1158712</v>
+        <v>1161326</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1208080</v>
+        <v>1208267</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.8730199678656787</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8532148422292575</v>
+        <v>0.8551394861314456</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.889566944607594</v>
+        <v>0.8897043942684735</v>
       </c>
     </row>
     <row r="25">
@@ -4513,19 +4513,19 @@
         <v>31850</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22740</v>
+        <v>21059</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44340</v>
+        <v>42642</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1211774778879045</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08651486494686396</v>
+        <v>0.08012132416470591</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1686940855725014</v>
+        <v>0.1622353150087321</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>105</v>
@@ -4534,19 +4534,19 @@
         <v>111668</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>91907</v>
+        <v>92236</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>132298</v>
+        <v>132261</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1019595288886672</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08391690328871011</v>
+        <v>0.08421750424552278</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1207965573544256</v>
+        <v>0.1207625882399626</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>136</v>
@@ -4555,19 +4555,19 @@
         <v>143518</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>122140</v>
+        <v>123011</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>168682</v>
+        <v>167610</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1056790059945191</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08993725527930455</v>
+        <v>0.09057866673646152</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1242085383435743</v>
+        <v>0.1234194594821878</v>
       </c>
     </row>
     <row r="26">
@@ -4584,19 +4584,19 @@
         <v>4031</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9246</v>
+        <v>9064</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01533796143513307</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003959954247687879</v>
+        <v>0.003939911861341987</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03517870048883737</v>
+        <v>0.03448429743989941</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>24</v>
@@ -4605,19 +4605,19 @@
         <v>24897</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>16267</v>
+        <v>16937</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>36759</v>
+        <v>37974</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02273210159048561</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01485305824210601</v>
+        <v>0.01546461407734325</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03356337801046265</v>
+        <v>0.03467313040761455</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>28</v>
@@ -4626,19 +4626,19 @@
         <v>28928</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>19967</v>
+        <v>18831</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>42510</v>
+        <v>40642</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02130102613980222</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01470245923399213</v>
+        <v>0.01386616205891931</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03130215740563649</v>
+        <v>0.02992686200731001</v>
       </c>
     </row>
     <row r="27">
@@ -4730,19 +4730,19 @@
         <v>2980023</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2938335</v>
+        <v>2941888</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3017331</v>
+        <v>3018241</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8774354945509431</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8651610141282718</v>
+        <v>0.8662072049499937</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8884203873261673</v>
+        <v>0.8886884060970868</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2840</v>
@@ -4751,19 +4751,19 @@
         <v>3063177</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3023356</v>
+        <v>3024525</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3107192</v>
+        <v>3104364</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8745273925274542</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8631586166258604</v>
+        <v>0.8634922397685673</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8870934259419876</v>
+        <v>0.886285962082198</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5635</v>
@@ -4772,19 +4772,19 @@
         <v>6043200</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5989950</v>
+        <v>5980835</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6102538</v>
+        <v>6099184</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8759590227810121</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8682404316380234</v>
+        <v>0.8669191709185073</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8845600087843432</v>
+        <v>0.8840739277676901</v>
       </c>
     </row>
     <row r="29">
@@ -4801,19 +4801,19 @@
         <v>336610</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>301770</v>
+        <v>301505</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>375961</v>
+        <v>372419</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09911129664023748</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08885302498765374</v>
+        <v>0.08877485223123845</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1106977878597352</v>
+        <v>0.1096548702358898</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>338</v>
@@ -4822,19 +4822,19 @@
         <v>365785</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>326819</v>
+        <v>329180</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>402033</v>
+        <v>402984</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1044304779879978</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09330592113400631</v>
+        <v>0.09397984272920197</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1147792536784321</v>
+        <v>0.1150507372151554</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>653</v>
@@ -4843,19 +4843,19 @@
         <v>702395</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>647194</v>
+        <v>653764</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>750407</v>
+        <v>759423</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1018118969065545</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09381044242040759</v>
+        <v>0.09476277205161357</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1087711071381142</v>
+        <v>0.1100780420081319</v>
       </c>
     </row>
     <row r="30">
@@ -4872,19 +4872,19 @@
         <v>79654</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>61234</v>
+        <v>61188</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>99518</v>
+        <v>98554</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02345320880881949</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01802978145708166</v>
+        <v>0.01801626371698404</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02930200986266835</v>
+        <v>0.02901803360696237</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>67</v>
@@ -4893,19 +4893,19 @@
         <v>73704</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>57544</v>
+        <v>57669</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>94128</v>
+        <v>93985</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02104212948454801</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01642851132978917</v>
+        <v>0.01646423641685712</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02687318361025177</v>
+        <v>0.02683229604595955</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>139</v>
@@ -4914,19 +4914,19 @@
         <v>153357</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>128407</v>
+        <v>128578</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>180679</v>
+        <v>179199</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02222908031243334</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01861259329232934</v>
+        <v>0.01863732575749873</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02618927376110814</v>
+        <v>0.02597484342639177</v>
       </c>
     </row>
     <row r="31">
@@ -5260,19 +5260,19 @@
         <v>354390</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>338682</v>
+        <v>335959</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>369398</v>
+        <v>370212</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8339088913494258</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7969467266813909</v>
+        <v>0.7905395783465109</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8692256401604224</v>
+        <v>0.871139467101952</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>273</v>
@@ -5281,19 +5281,19 @@
         <v>283381</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>268073</v>
+        <v>268549</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>296550</v>
+        <v>297081</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8292073495306485</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7844152879426497</v>
+        <v>0.7858085759987766</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.867743328049747</v>
+        <v>0.8692960286501653</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>601</v>
@@ -5302,19 +5302,19 @@
         <v>637770</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>614126</v>
+        <v>614747</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>657384</v>
+        <v>658287</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8318132909300646</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8009747690248109</v>
+        <v>0.8017846636662546</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8573948797225832</v>
+        <v>0.8585716696902052</v>
       </c>
     </row>
     <row r="5">
@@ -5331,19 +5331,19 @@
         <v>54922</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>41017</v>
+        <v>40716</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>69995</v>
+        <v>70409</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1292372695303134</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.096515376712673</v>
+        <v>0.09580768321386633</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1647037129885833</v>
+        <v>0.1656795077502573</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>42</v>
@@ -5352,19 +5352,19 @@
         <v>46058</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>34253</v>
+        <v>34152</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>61235</v>
+        <v>60487</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1347700823169664</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1002287310691212</v>
+        <v>0.09993235551971261</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1791807707579498</v>
+        <v>0.1769917441952762</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>92</v>
@@ -5373,19 +5373,19 @@
         <v>100980</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>83209</v>
+        <v>81721</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>122673</v>
+        <v>123020</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.131703389208256</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1085257317105257</v>
+        <v>0.1065852604173317</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1599971203885729</v>
+        <v>0.1604488269357448</v>
       </c>
     </row>
     <row r="6">
@@ -5402,19 +5402,19 @@
         <v>15662</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8567</v>
+        <v>8918</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24825</v>
+        <v>27636</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03685383912026081</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02015878879400204</v>
+        <v>0.02098588222592113</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0584158203269621</v>
+        <v>0.0650290903462761</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -5423,19 +5423,19 @@
         <v>12311</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6633</v>
+        <v>6763</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20905</v>
+        <v>20873</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03602256815238508</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01940789219029349</v>
+        <v>0.01978968749383787</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06117086592848489</v>
+        <v>0.06107771289155172</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>26</v>
@@ -5444,19 +5444,19 @@
         <v>27973</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18652</v>
+        <v>18139</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>39998</v>
+        <v>39642</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03648331986167935</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02432720757474598</v>
+        <v>0.02365804249277247</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0521680627155121</v>
+        <v>0.051702558185696</v>
       </c>
     </row>
     <row r="7">
@@ -5548,19 +5548,19 @@
         <v>314915</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>299104</v>
+        <v>299419</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>329038</v>
+        <v>329325</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8416436599534042</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7993865493132182</v>
+        <v>0.8002284123941121</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8793892121381568</v>
+        <v>0.8801560860015702</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>283</v>
@@ -5569,19 +5569,19 @@
         <v>297786</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>281299</v>
+        <v>281504</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>311800</v>
+        <v>312547</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8059462749193699</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.761326477536823</v>
+        <v>0.7618795089061747</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8438761884983563</v>
+        <v>0.8458959688917419</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>580</v>
@@ -5590,19 +5590,19 @@
         <v>612701</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>588866</v>
+        <v>588086</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>632505</v>
+        <v>632486</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8239073260409179</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7918561716721427</v>
+        <v>0.7908075722051174</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8505376096482423</v>
+        <v>0.8505125934387168</v>
       </c>
     </row>
     <row r="9">
@@ -5619,19 +5619,19 @@
         <v>51827</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>38878</v>
+        <v>37590</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>67261</v>
+        <v>67157</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1385129412077088</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1039052929692664</v>
+        <v>0.1004627907990312</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1797621384821789</v>
+        <v>0.1794835194737557</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>57</v>
@@ -5640,19 +5640,19 @@
         <v>61000</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>47820</v>
+        <v>48167</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>76481</v>
+        <v>76100</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1650945378453981</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1294233653424037</v>
+        <v>0.1303630929440759</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2069928076163322</v>
+        <v>0.2059625855841019</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>104</v>
@@ -5661,19 +5661,19 @@
         <v>112827</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>94317</v>
+        <v>93999</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>135665</v>
+        <v>135355</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1517200731431037</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1268294404670603</v>
+        <v>0.1264017166117985</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1824300949547663</v>
+        <v>0.1820138675333742</v>
       </c>
     </row>
     <row r="10">
@@ -5690,19 +5690,19 @@
         <v>7425</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3106</v>
+        <v>3133</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15006</v>
+        <v>14314</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01984339883888706</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008301367906935694</v>
+        <v>0.008373799914418452</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04010591334080263</v>
+        <v>0.03825448094335526</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -5711,19 +5711,19 @@
         <v>10700</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5136</v>
+        <v>5752</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19066</v>
+        <v>19315</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02895918723523202</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01389982379772682</v>
+        <v>0.01556645383645883</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05160076050936551</v>
+        <v>0.05227604799833294</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -5732,19 +5732,19 @@
         <v>18125</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10613</v>
+        <v>10976</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28724</v>
+        <v>28447</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0243726008159785</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01427171155999253</v>
+        <v>0.01475956416859731</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03862490221281621</v>
+        <v>0.03825246781976931</v>
       </c>
     </row>
     <row r="11">
@@ -5836,19 +5836,19 @@
         <v>439058</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>420615</v>
+        <v>421990</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>455487</v>
+        <v>455078</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8491488482294797</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8134809522846671</v>
+        <v>0.8161403851797234</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8809238741476371</v>
+        <v>0.8801333358243723</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>137</v>
@@ -5857,19 +5857,19 @@
         <v>148439</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>138269</v>
+        <v>137731</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>155518</v>
+        <v>155402</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8935483237161889</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8323281622917017</v>
+        <v>0.829090432786646</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9361641143369914</v>
+        <v>0.9354636351047304</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>558</v>
@@ -5878,19 +5878,19 @@
         <v>587496</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>566762</v>
+        <v>567689</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>604386</v>
+        <v>604134</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8599450981094446</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8295959737671367</v>
+        <v>0.8309534720753848</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8846682146585129</v>
+        <v>0.8842993565849886</v>
       </c>
     </row>
     <row r="13">
@@ -5907,19 +5907,19 @@
         <v>62149</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47927</v>
+        <v>47747</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>78968</v>
+        <v>77255</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1201983494845379</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09269181049757132</v>
+        <v>0.09234368779974841</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1527255963232417</v>
+        <v>0.149413389743305</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -5928,19 +5928,19 @@
         <v>17684</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10605</v>
+        <v>10721</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27854</v>
+        <v>28392</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1064516762838111</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06383588566300795</v>
+        <v>0.06453636489526964</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.167671837708298</v>
+        <v>0.1709095672133533</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>77</v>
@@ -5949,19 +5949,19 @@
         <v>79833</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>64780</v>
+        <v>64753</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>98644</v>
+        <v>98562</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1168556856970414</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09482154239131871</v>
+        <v>0.09478224559414343</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.144390206793218</v>
+        <v>0.1442702256010062</v>
       </c>
     </row>
     <row r="14">
@@ -5978,19 +5978,19 @@
         <v>15849</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9421</v>
+        <v>9287</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>25605</v>
+        <v>25104</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03065280228598243</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01821969592989433</v>
+        <v>0.01796129372826786</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04952066277641287</v>
+        <v>0.04855139548009627</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -6012,19 +6012,19 @@
         <v>15849</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8772</v>
+        <v>9427</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24371</v>
+        <v>26653</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02319921619351401</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01283969754934971</v>
+        <v>0.01379880738903871</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03567243792509066</v>
+        <v>0.03901385646695682</v>
       </c>
     </row>
     <row r="15">
@@ -6116,19 +6116,19 @@
         <v>943857</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>916867</v>
+        <v>915373</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>969399</v>
+        <v>967761</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8255461603990435</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8019397039538035</v>
+        <v>0.8006323726885934</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8478866736805186</v>
+        <v>0.8464542600840108</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>665</v>
@@ -6137,19 +6137,19 @@
         <v>687077</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>664078</v>
+        <v>665733</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>706218</v>
+        <v>708179</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8413407288935812</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8131781790331053</v>
+        <v>0.8152052325533894</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8647798791863086</v>
+        <v>0.8671805623953956</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1571</v>
@@ -6158,19 +6158,19 @@
         <v>1630933</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1595731</v>
+        <v>1596418</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1663704</v>
+        <v>1659562</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8321271996019677</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8141668243265993</v>
+        <v>0.8145170532470719</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8488477325688356</v>
+        <v>0.8467344221508527</v>
       </c>
     </row>
     <row r="17">
@@ -6187,19 +6187,19 @@
         <v>145533</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>124723</v>
+        <v>125658</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>167547</v>
+        <v>171340</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1272903900836601</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1090896354128584</v>
+        <v>0.1099070684040686</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1465452791464903</v>
+        <v>0.1498628742162826</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>89</v>
@@ -6208,19 +6208,19 @@
         <v>92112</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>76015</v>
+        <v>73536</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>111327</v>
+        <v>111055</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.112793321261686</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09308180987343105</v>
+        <v>0.09004675187069931</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.136322137733891</v>
+        <v>0.1359890453143589</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>231</v>
@@ -6229,19 +6229,19 @@
         <v>237645</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>211152</v>
+        <v>211775</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>269095</v>
+        <v>268448</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1212499731974441</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.107732903611818</v>
+        <v>0.1080506723208855</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1372965606830577</v>
+        <v>0.136966459467832</v>
       </c>
     </row>
     <row r="18">
@@ -6258,19 +6258,19 @@
         <v>53923</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>39448</v>
+        <v>39560</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>70051</v>
+        <v>69975</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04716344951729647</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03450305644069559</v>
+        <v>0.03460124510746264</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0612701627757017</v>
+        <v>0.06120417970120345</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>36</v>
@@ -6279,19 +6279,19 @@
         <v>37456</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>26660</v>
+        <v>27225</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>50917</v>
+        <v>51202</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04586594984473275</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03264523568174518</v>
+        <v>0.03333718600323759</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06234881701541244</v>
+        <v>0.06269845811555136</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>85</v>
@@ -6300,19 +6300,19 @@
         <v>91379</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>71344</v>
+        <v>74120</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>113598</v>
+        <v>112566</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04662282720058828</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03640074971701146</v>
+        <v>0.03781699538526982</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05795923584937864</v>
+        <v>0.05743287198084274</v>
       </c>
     </row>
     <row r="19">
@@ -6404,19 +6404,19 @@
         <v>545594</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>526739</v>
+        <v>528388</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>560339</v>
+        <v>560166</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8863606570774288</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8557287293523806</v>
+        <v>0.8584081835204399</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9103155989826736</v>
+        <v>0.9100332673264419</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>606</v>
@@ -6425,19 +6425,19 @@
         <v>638636</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>618135</v>
+        <v>620851</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>655929</v>
+        <v>656608</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8742946238273349</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8462284998432397</v>
+        <v>0.8499462508215756</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8979688529352864</v>
+        <v>0.8988973916152302</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1134</v>
@@ -6446,19 +6446,19 @@
         <v>1184230</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1159604</v>
+        <v>1158525</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1208176</v>
+        <v>1207499</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8798125732347933</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8615170040682436</v>
+        <v>0.8607153910628316</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8976027891562175</v>
+        <v>0.8970999776940266</v>
       </c>
     </row>
     <row r="21">
@@ -6475,19 +6475,19 @@
         <v>57558</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>43654</v>
+        <v>44502</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>75466</v>
+        <v>72856</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0935078268897868</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07091969117784916</v>
+        <v>0.07229781824987377</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1226000356056763</v>
+        <v>0.1183595880219107</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>64</v>
@@ -6496,19 +6496,19 @@
         <v>67936</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>52134</v>
+        <v>51063</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>84902</v>
+        <v>82669</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09300453088131323</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07137108798795694</v>
+        <v>0.06990551650282931</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1162312083683182</v>
+        <v>0.1131733997953445</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>118</v>
@@ -6517,19 +6517,19 @@
         <v>125494</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>102542</v>
+        <v>105115</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>146601</v>
+        <v>148630</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09323469450295842</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07618269047764767</v>
+        <v>0.07809452368992208</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1089156439202489</v>
+        <v>0.1104229019097459</v>
       </c>
     </row>
     <row r="22">
@@ -6546,19 +6546,19 @@
         <v>12392</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6147</v>
+        <v>6231</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22728</v>
+        <v>21643</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02013151603278437</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009986531134567361</v>
+        <v>0.01012346619981636</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03692385730288028</v>
+        <v>0.03516009932801528</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>22</v>
@@ -6567,19 +6567,19 @@
         <v>23887</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15799</v>
+        <v>14980</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34637</v>
+        <v>35138</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03270084529135182</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02162916375136121</v>
+        <v>0.0205081819888896</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0474183404038318</v>
+        <v>0.04810411469389939</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>32</v>
@@ -6588,19 +6588,19 @@
         <v>36278</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>25559</v>
+        <v>25380</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>51477</v>
+        <v>51252</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02695273226224823</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0189890172040269</v>
+        <v>0.01885614505490528</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03824429656638206</v>
+        <v>0.03807731828736231</v>
       </c>
     </row>
     <row r="23">
@@ -6692,19 +6692,19 @@
         <v>247994</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>235716</v>
+        <v>236569</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>258139</v>
+        <v>258521</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.8759123324707379</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8325455558470497</v>
+        <v>0.8355590487563006</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9117425492500978</v>
+        <v>0.9130910614787636</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>807</v>
@@ -6713,19 +6713,19 @@
         <v>877775</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>849893</v>
+        <v>851478</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>902587</v>
+        <v>902838</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8154657263801756</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7895634463013161</v>
+        <v>0.7910359830644808</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8385163236684041</v>
+        <v>0.8387499266026787</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1043</v>
@@ -6734,19 +6734,19 @@
         <v>1125769</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1093878</v>
+        <v>1094766</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1154624</v>
+        <v>1151976</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.8280539019817671</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.804596307507824</v>
+        <v>0.8052495516568342</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8492779138456503</v>
+        <v>0.847330145951477</v>
       </c>
     </row>
     <row r="25">
@@ -6763,19 +6763,19 @@
         <v>30865</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21334</v>
+        <v>20598</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>42286</v>
+        <v>41658</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1090132998436652</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07535107309407861</v>
+        <v>0.07275258501356945</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1493519519034</v>
+        <v>0.147135056607317</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>135</v>
@@ -6784,19 +6784,19 @@
         <v>148542</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>126211</v>
+        <v>127645</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>174027</v>
+        <v>174619</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1379980353972967</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1172514582493886</v>
+        <v>0.1185836458611026</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1616739107781162</v>
+        <v>0.1622240163574004</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>163</v>
@@ -6805,19 +6805,19 @@
         <v>179407</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>153677</v>
+        <v>156451</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>207422</v>
+        <v>206103</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1319618827575909</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1130361900320522</v>
+        <v>0.1150765159823113</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1525682743797142</v>
+        <v>0.1515977379044536</v>
       </c>
     </row>
     <row r="26">
@@ -6834,19 +6834,19 @@
         <v>4268</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1061</v>
+        <v>1072</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9651</v>
+        <v>10685</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01507436768559695</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003745973170694557</v>
+        <v>0.003784832741230857</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03408840499549524</v>
+        <v>0.03773936365337695</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>45</v>
@@ -6855,19 +6855,19 @@
         <v>50092</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>37234</v>
+        <v>37197</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>65946</v>
+        <v>64888</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04653623822252777</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03459066639406407</v>
+        <v>0.03455661539442891</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06126478387604614</v>
+        <v>0.06028180507059946</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>49</v>
@@ -6876,19 +6876,19 @@
         <v>54360</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>41460</v>
+        <v>39670</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>72038</v>
+        <v>71006</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03998421526064206</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0304957513236427</v>
+        <v>0.02917891471964223</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05298714455280951</v>
+        <v>0.05222788867816442</v>
       </c>
     </row>
     <row r="27">
@@ -6980,19 +6980,19 @@
         <v>2845808</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2799379</v>
+        <v>2797724</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2886741</v>
+        <v>2889993</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8474255813128129</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8336000520863965</v>
+        <v>0.8331071489365521</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8596146065226665</v>
+        <v>0.8605832039991166</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2771</v>
@@ -7001,19 +7001,19 @@
         <v>2933092</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2881773</v>
+        <v>2889904</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2978833</v>
+        <v>2975115</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.837818157451223</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8231594286274609</v>
+        <v>0.8254818760092733</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8508839578094243</v>
+        <v>0.849821783217197</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5487</v>
@@ -7022,19 +7022,19 @@
         <v>5778899</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5712820</v>
+        <v>5716836</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5838922</v>
+        <v>5840911</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8425219375320623</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8328880369501122</v>
+        <v>0.8334734985650548</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8512728222391377</v>
+        <v>0.8515627931300547</v>
       </c>
     </row>
     <row r="29">
@@ -7051,19 +7051,19 @@
         <v>402854</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>365107</v>
+        <v>360566</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>444812</v>
+        <v>443706</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1199620476606831</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.108721626653604</v>
+        <v>0.1073694295706798</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1324563793735312</v>
+        <v>0.1321269227338724</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>403</v>
@@ -7072,19 +7072,19 @@
         <v>433332</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>394037</v>
+        <v>395274</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>478206</v>
+        <v>473895</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1237783841637623</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1125541116677151</v>
+        <v>0.1129075203738433</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.136596285000882</v>
+        <v>0.1353650211920414</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>785</v>
@@ -7093,19 +7093,19 @@
         <v>836186</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>784444</v>
+        <v>779517</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>893972</v>
+        <v>892255</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1219099116279838</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1143662591734502</v>
+        <v>0.1136479377893564</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1303346159051272</v>
+        <v>0.1300842902078117</v>
       </c>
     </row>
     <row r="30">
@@ -7122,19 +7122,19 @@
         <v>109518</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>88701</v>
+        <v>88105</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>132002</v>
+        <v>131184</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03261237102650399</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02641344812138625</v>
+        <v>0.02623599395329226</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0393075661874518</v>
+        <v>0.03906414392512108</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>125</v>
@@ -7143,19 +7143,19 @@
         <v>134445</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>113745</v>
+        <v>113316</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>160772</v>
+        <v>160151</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03840345838501466</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03249045205197709</v>
+        <v>0.03236792135022202</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04592346761671496</v>
+        <v>0.04574615779308807</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>224</v>
@@ -7164,19 +7164,19 @@
         <v>243964</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>212392</v>
+        <v>214341</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>277619</v>
+        <v>277319</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03556815083995392</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03096523592765331</v>
+        <v>0.03124930416550155</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04047490912506926</v>
+        <v>0.04043111984446719</v>
       </c>
     </row>
     <row r="31">
@@ -7510,19 +7510,19 @@
         <v>488779</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>470351</v>
+        <v>469235</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>501670</v>
+        <v>502568</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8929234159644275</v>
+        <v>0.8929234159644277</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8592588712567083</v>
+        <v>0.8572189242423979</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9164724517192845</v>
+        <v>0.9181129409192524</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>601</v>
@@ -7531,19 +7531,19 @@
         <v>431174</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>419046</v>
+        <v>419921</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>440980</v>
+        <v>441786</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8932186297265488</v>
+        <v>0.8932186297265486</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8680959286625992</v>
+        <v>0.8699077874163123</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9135334507702573</v>
+        <v>0.9152030757491557</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1094</v>
@@ -7552,19 +7552,19 @@
         <v>919953</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>897896</v>
+        <v>900675</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>938198</v>
+        <v>939007</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.893061755673386</v>
+        <v>0.8930617556733859</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8716495662219801</v>
+        <v>0.8743474723213243</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9107736443950566</v>
+        <v>0.9115590574937038</v>
       </c>
     </row>
     <row r="5">
@@ -7581,19 +7581,19 @@
         <v>43772</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32867</v>
+        <v>32218</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>59322</v>
+        <v>59801</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07996544096389141</v>
+        <v>0.07996544096389142</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06004362153204082</v>
+        <v>0.0588578177968247</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1083715341373119</v>
+        <v>0.1092477427467464</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>63</v>
@@ -7602,19 +7602,19 @@
         <v>41374</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32867</v>
+        <v>32300</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>52153</v>
+        <v>52076</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08571021350467489</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06808784344522577</v>
+        <v>0.06691239290177844</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1080410837240072</v>
+        <v>0.1078809139298793</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>109</v>
@@ -7623,19 +7623,19 @@
         <v>85146</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>69405</v>
+        <v>70067</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>103434</v>
+        <v>102672</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.08265749080470537</v>
+        <v>0.08265749080470534</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06737596450127355</v>
+        <v>0.06801913696573875</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.100410854548992</v>
+        <v>0.09967039512811612</v>
       </c>
     </row>
     <row r="6">
@@ -7652,19 +7652,19 @@
         <v>14840</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7250</v>
+        <v>7864</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25966</v>
+        <v>27278</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02711114307168105</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01324507233871727</v>
+        <v>0.01436687710374431</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04743565250540344</v>
+        <v>0.04983338781319294</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -7673,19 +7673,19 @@
         <v>10171</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5810</v>
+        <v>5811</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15978</v>
+        <v>16497</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.02107115676877651</v>
+        <v>0.0210711567687765</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01203524051649993</v>
+        <v>0.01203850268491157</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03310075037603512</v>
+        <v>0.03417583080512089</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>28</v>
@@ -7694,19 +7694,19 @@
         <v>25012</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>16909</v>
+        <v>16695</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>38576</v>
+        <v>37984</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02428075352190873</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01641478845355822</v>
+        <v>0.01620661129200916</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03744792709165817</v>
+        <v>0.03687404340642279</v>
       </c>
     </row>
     <row r="7">
@@ -7798,19 +7798,19 @@
         <v>435277</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>419371</v>
+        <v>421879</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>447224</v>
+        <v>447227</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9031970424392743</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8701921093863738</v>
+        <v>0.8753967918304838</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9279869478862223</v>
+        <v>0.9279945600167402</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>512</v>
@@ -7819,19 +7819,19 @@
         <v>369602</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>357011</v>
+        <v>356833</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>380017</v>
+        <v>379712</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8841020916440514</v>
+        <v>0.8841020916440512</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8539822135288486</v>
+        <v>0.8535561765742776</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9090152094441353</v>
+        <v>0.9082852903151233</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>942</v>
@@ -7840,19 +7840,19 @@
         <v>804880</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>786988</v>
+        <v>786830</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>821712</v>
+        <v>820747</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8943271842137732</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8744471809247011</v>
+        <v>0.874271593245276</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.913029176641704</v>
+        <v>0.911957456782847</v>
       </c>
     </row>
     <row r="9">
@@ -7869,19 +7869,19 @@
         <v>40818</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>29173</v>
+        <v>29783</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>55192</v>
+        <v>54786</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08469791835098164</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06053295438549088</v>
+        <v>0.06179962738833333</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1145234549648803</v>
+        <v>0.1136796250107156</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>52</v>
@@ -7890,19 +7890,19 @@
         <v>35548</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>26630</v>
+        <v>26608</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>46342</v>
+        <v>46817</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08503104534491623</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06370096264384158</v>
+        <v>0.06364667456520427</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1108522014900387</v>
+        <v>0.1119889390692118</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>95</v>
@@ -7911,19 +7911,19 @@
         <v>76366</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>62071</v>
+        <v>62817</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>93673</v>
+        <v>93750</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08485266026359377</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06896922340044874</v>
+        <v>0.06979805519179938</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1040828378224147</v>
+        <v>0.1041687247546917</v>
       </c>
     </row>
     <row r="10">
@@ -7940,19 +7940,19 @@
         <v>5834</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2062</v>
+        <v>2226</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13054</v>
+        <v>12807</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01210503920974405</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00427893159744717</v>
+        <v>0.004619596674456037</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02708648007907538</v>
+        <v>0.02657350630479983</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -7961,19 +7961,19 @@
         <v>12904</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8257</v>
+        <v>7532</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19992</v>
+        <v>20021</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.03086686301103241</v>
+        <v>0.0308668630110324</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01975085963088765</v>
+        <v>0.01801660219211862</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04782189585659135</v>
+        <v>0.04789036305326991</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -7982,19 +7982,19 @@
         <v>18738</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11904</v>
+        <v>12024</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28194</v>
+        <v>27218</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02082015552263307</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01322706892870162</v>
+        <v>0.0133606918880855</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03132730157553954</v>
+        <v>0.03024253180263969</v>
       </c>
     </row>
     <row r="11">
@@ -8086,19 +8086,19 @@
         <v>416417</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>400384</v>
+        <v>399321</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>429211</v>
+        <v>428752</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8874181495214916</v>
+        <v>0.8874181495214917</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8532515827467489</v>
+        <v>0.8509851973234396</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9146844497322155</v>
+        <v>0.9137054777765412</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>260</v>
@@ -8107,19 +8107,19 @@
         <v>166104</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>156207</v>
+        <v>153574</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>173402</v>
+        <v>173029</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.888205460883295</v>
+        <v>0.8882054608832948</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.835282288062517</v>
+        <v>0.821202934451696</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9272279755037225</v>
+        <v>0.9252347878649808</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>695</v>
@@ -8128,19 +8128,19 @@
         <v>582520</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>564174</v>
+        <v>562412</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>597612</v>
+        <v>597034</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.88764250666105</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8596866360631744</v>
+        <v>0.8570027525529763</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9106392062083704</v>
+        <v>0.9097594090452948</v>
       </c>
     </row>
     <row r="13">
@@ -8157,19 +8157,19 @@
         <v>41481</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29489</v>
+        <v>30796</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55935</v>
+        <v>56656</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08839997420236832</v>
+        <v>0.08839997420236834</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06284256171600404</v>
+        <v>0.06562958390642193</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1192024275637788</v>
+        <v>0.12073922003431</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -8178,19 +8178,19 @@
         <v>16220</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9748</v>
+        <v>9869</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26752</v>
+        <v>28745</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.08673517551631731</v>
+        <v>0.08673517551631732</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05212366062583931</v>
+        <v>0.05277319217315846</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1430508598043032</v>
+        <v>0.1537054056226156</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>61</v>
@@ -8199,19 +8199,19 @@
         <v>57702</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>43886</v>
+        <v>45086</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>74483</v>
+        <v>76099</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08792556282046274</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0668730434476852</v>
+        <v>0.06870158623471377</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1134972363840923</v>
+        <v>0.1159592631347842</v>
       </c>
     </row>
     <row r="14">
@@ -8228,19 +8228,19 @@
         <v>11347</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5669</v>
+        <v>5787</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20624</v>
+        <v>19660</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02418187627614013</v>
+        <v>0.02418187627614014</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01208068801083022</v>
+        <v>0.01233161788418376</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04395075199083158</v>
+        <v>0.04189643093307718</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -8249,19 +8249,19 @@
         <v>4686</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2037</v>
+        <v>1927</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9575</v>
+        <v>8918</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.02505936360038785</v>
+        <v>0.02505936360038784</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01089029318419185</v>
+        <v>0.0103064880946214</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05119880549717763</v>
+        <v>0.04768650382782162</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>18</v>
@@ -8270,19 +8270,19 @@
         <v>16034</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10147</v>
+        <v>9416</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>26218</v>
+        <v>25563</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02443193051848727</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01546168507643475</v>
+        <v>0.01434757698056005</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03995063063282417</v>
+        <v>0.03895357930963943</v>
       </c>
     </row>
     <row r="15">
@@ -8374,19 +8374,19 @@
         <v>1039813</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1018590</v>
+        <v>1016972</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1058296</v>
+        <v>1058516</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9225413591661015</v>
+        <v>0.9225413591661016</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9037118364018423</v>
+        <v>0.9022767016107762</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9389394225922347</v>
+        <v>0.9391349629128513</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1118</v>
@@ -8395,19 +8395,19 @@
         <v>778599</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>762330</v>
+        <v>763273</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>792362</v>
+        <v>794073</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9078789394942058</v>
+        <v>0.9078789394942057</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8889085890300943</v>
+        <v>0.8900089355714577</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9239268442440208</v>
+        <v>0.9259220382901657</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2153</v>
@@ -8416,19 +8416,19 @@
         <v>1818412</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1789581</v>
+        <v>1792117</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1841707</v>
+        <v>1841546</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9162056963985371</v>
+        <v>0.916205696398537</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9016794375577729</v>
+        <v>0.902957230948794</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9279428310981482</v>
+        <v>0.9278620014052343</v>
       </c>
     </row>
     <row r="17">
@@ -8445,19 +8445,19 @@
         <v>73382</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>56491</v>
+        <v>56174</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>93967</v>
+        <v>94906</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0651059952581247</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05011965632741416</v>
+        <v>0.04983892945704969</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08336887919483954</v>
+        <v>0.08420251201492973</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>80</v>
@@ -8466,19 +8466,19 @@
         <v>59485</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>47460</v>
+        <v>46383</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>73585</v>
+        <v>74188</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.06936169529316775</v>
+        <v>0.06936169529316773</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05533988355345815</v>
+        <v>0.05408508512593661</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08580282707278726</v>
+        <v>0.08650575985887166</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>146</v>
@@ -8487,19 +8487,19 @@
         <v>132867</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>113342</v>
+        <v>110271</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>159853</v>
+        <v>156310</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.06694489230685848</v>
+        <v>0.06694489230685849</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05710709540760656</v>
+        <v>0.05556003505965359</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08054181107982816</v>
+        <v>0.07875669022484282</v>
       </c>
     </row>
     <row r="18">
@@ -8516,19 +8516,19 @@
         <v>13923</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7353</v>
+        <v>7903</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>23129</v>
+        <v>23354</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01235264557577371</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.006523720797331599</v>
+        <v>0.007011337566473142</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02052038580940608</v>
+        <v>0.02071991960729951</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>26</v>
@@ -8537,19 +8537,19 @@
         <v>19518</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12588</v>
+        <v>12745</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>27765</v>
+        <v>28332</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02275936521262651</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01467852527625433</v>
+        <v>0.01486082719524498</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03237537741523028</v>
+        <v>0.03303615340743843</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>39</v>
@@ -8558,19 +8558,19 @@
         <v>33441</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>23734</v>
+        <v>23959</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>45900</v>
+        <v>46890</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01684941129460448</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01195851767697823</v>
+        <v>0.01207152983286164</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02312671590609139</v>
+        <v>0.02362553936792934</v>
       </c>
     </row>
     <row r="19">
@@ -8662,19 +8662,19 @@
         <v>523205</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>508815</v>
+        <v>506954</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>535425</v>
+        <v>535525</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9227993780496323</v>
+        <v>0.922799378049632</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8974193962229803</v>
+        <v>0.8941370555593058</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9443520835484098</v>
+        <v>0.9445290827546572</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1153</v>
@@ -8683,19 +8683,19 @@
         <v>737828</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>721451</v>
+        <v>721884</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>753013</v>
+        <v>751752</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8961639844129027</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8762729228536233</v>
+        <v>0.876797953231231</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.914607434808104</v>
+        <v>0.9130766817864102</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1657</v>
@@ -8704,19 +8704,19 @@
         <v>1261033</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1239949</v>
+        <v>1238886</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1279559</v>
+        <v>1279832</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9070261717842361</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8918613358719037</v>
+        <v>0.8910963419436921</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9203514411532401</v>
+        <v>0.9205474858158802</v>
       </c>
     </row>
     <row r="21">
@@ -8733,19 +8733,19 @@
         <v>32784</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>22299</v>
+        <v>22831</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>46390</v>
+        <v>47080</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.05782260198742055</v>
+        <v>0.05782260198742052</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03933043829913754</v>
+        <v>0.04026757668168018</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08181986558416518</v>
+        <v>0.08303623591746194</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>101</v>
@@ -8754,19 +8754,19 @@
         <v>69819</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>56458</v>
+        <v>56921</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>85261</v>
+        <v>85103</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08480217308638188</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06857360956549016</v>
+        <v>0.06913632445477366</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1035572371890872</v>
+        <v>0.103366255779837</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>132</v>
@@ -8775,19 +8775,19 @@
         <v>102603</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>87059</v>
+        <v>85093</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>121186</v>
+        <v>121891</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.07379962660736114</v>
+        <v>0.07379962660736115</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06261938649658993</v>
+        <v>0.06120495469864617</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08716559734416138</v>
+        <v>0.08767253857509361</v>
       </c>
     </row>
     <row r="22">
@@ -8804,19 +8804,19 @@
         <v>10987</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5859</v>
+        <v>5672</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20579</v>
+        <v>20942</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01937801996294732</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01033439022775676</v>
+        <v>0.01000349326285469</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03629675618736525</v>
+        <v>0.03693548290707051</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>24</v>
@@ -8825,19 +8825,19 @@
         <v>15671</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10261</v>
+        <v>10602</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23496</v>
+        <v>22621</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0190338425007153</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01246356117661433</v>
+        <v>0.01287659997096832</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02853843573031629</v>
+        <v>0.02747567249275297</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -8846,19 +8846,19 @@
         <v>26658</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18956</v>
+        <v>18498</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>37430</v>
+        <v>37591</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01917420160840271</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01363469781669895</v>
+        <v>0.01330507984953264</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02692205005929971</v>
+        <v>0.02703795058456853</v>
       </c>
     </row>
     <row r="23">
@@ -8950,19 +8950,19 @@
         <v>216778</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>197248</v>
+        <v>201317</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>225970</v>
+        <v>227682</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.918044853362366</v>
+        <v>0.9180448533623661</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.835334724426952</v>
+        <v>0.8525700558233208</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9569720863667754</v>
+        <v>0.9642232451732563</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1069</v>
@@ -8971,19 +8971,19 @@
         <v>775329</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>758633</v>
+        <v>757276</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>789513</v>
+        <v>790217</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.9224841143243007</v>
+        <v>0.9224841143243009</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9026201904472113</v>
+        <v>0.901004909529862</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9393608400129726</v>
+        <v>0.940198697574591</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1171</v>
@@ -8992,19 +8992,19 @@
         <v>992106</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>970053</v>
+        <v>967048</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1010188</v>
+        <v>1009465</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9215104630667398</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.901026684471777</v>
+        <v>0.8982347823546341</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9383054074032574</v>
+        <v>0.9376340401749897</v>
       </c>
     </row>
     <row r="25">
@@ -9021,19 +9021,19 @@
         <v>10205</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3785</v>
+        <v>3494</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26084</v>
+        <v>22363</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.04321923129542005</v>
+        <v>0.04321923129542007</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01602873772420093</v>
+        <v>0.01479661039508527</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1104628638296016</v>
+        <v>0.09470745705662993</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>70</v>
@@ -9042,19 +9042,19 @@
         <v>51639</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>38931</v>
+        <v>38892</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>66126</v>
+        <v>67661</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.06144052375288293</v>
+        <v>0.06144052375288294</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04631987490148706</v>
+        <v>0.04627368967270006</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07867610895403876</v>
+        <v>0.0805034054681989</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>75</v>
@@ -9063,19 +9063,19 @@
         <v>61845</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>46729</v>
+        <v>48991</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>79883</v>
+        <v>81340</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.05744409631423521</v>
+        <v>0.05744409631423519</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04340377812187045</v>
+        <v>0.04550459841429121</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07419858776009816</v>
+        <v>0.07555234545934281</v>
       </c>
     </row>
     <row r="26">
@@ -9092,19 +9092,19 @@
         <v>9147</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2388</v>
+        <v>2434</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>24667</v>
+        <v>24585</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.03873591534221388</v>
+        <v>0.03873591534221389</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01011258423432521</v>
+        <v>0.01030903670252436</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1044649738132018</v>
+        <v>0.1041164043948098</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -9113,19 +9113,19 @@
         <v>13511</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7208</v>
+        <v>6945</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>24862</v>
+        <v>25299</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0160753619228163</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008576185678022855</v>
+        <v>0.008263177037733684</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02958099994661574</v>
+        <v>0.03010046336240756</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>18</v>
@@ -9134,19 +9134,19 @@
         <v>22658</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>12932</v>
+        <v>12941</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>38797</v>
+        <v>39801</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.02104544061902494</v>
+        <v>0.02104544061902493</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01201194183835305</v>
+        <v>0.01201998222933652</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03603587244268661</v>
+        <v>0.03696920014621092</v>
       </c>
     </row>
     <row r="27">
@@ -9238,19 +9238,19 @@
         <v>3120269</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3082810</v>
+        <v>3080930</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3152780</v>
+        <v>3153572</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9100203061059768</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8990954693327808</v>
+        <v>0.8985473817808038</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9195021050847277</v>
+        <v>0.9197331854270743</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4713</v>
@@ -9259,19 +9259,19 @@
         <v>3258635</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3225508</v>
+        <v>3225546</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3291083</v>
+        <v>3286386</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9028734428073979</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.893694763389156</v>
+        <v>0.8937052927964635</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9118636383360103</v>
+        <v>0.9105623848667553</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7712</v>
@@ -9280,19 +9280,19 @@
         <v>6378904</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6330367</v>
+        <v>6322608</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6429862</v>
+        <v>6425965</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.9063552827301301</v>
+        <v>0.90635528273013</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8994588570952166</v>
+        <v>0.8983563618026931</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9135957167938086</v>
+        <v>0.9130420143828923</v>
       </c>
     </row>
     <row r="29">
@@ -9309,19 +9309,19 @@
         <v>242444</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>214825</v>
+        <v>211151</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>280066</v>
+        <v>275917</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07070820733332293</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06265333937451896</v>
+        <v>0.0615817109664637</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08168082356571865</v>
+        <v>0.08047060180126168</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>387</v>
@@ -9330,19 +9330,19 @@
         <v>274085</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>246174</v>
+        <v>248711</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>306184</v>
+        <v>303644</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07594109045896369</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06820754459835318</v>
+        <v>0.06891050179083132</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08483459963582039</v>
+        <v>0.08413095299083158</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>618</v>
@@ -9351,19 +9351,19 @@
         <v>516529</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>475123</v>
+        <v>471925</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>559925</v>
+        <v>561062</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0733917117152188</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0675084435030998</v>
+        <v>0.06705413267500022</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07955772927190988</v>
+        <v>0.07971931776202609</v>
       </c>
     </row>
     <row r="30">
@@ -9380,19 +9380,19 @@
         <v>66078</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>48964</v>
+        <v>48500</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>86836</v>
+        <v>87617</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01927148656070017</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01428014583438564</v>
+        <v>0.0141449050523349</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02532542957242516</v>
+        <v>0.0255534073558927</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>105</v>
@@ -9401,19 +9401,19 @@
         <v>76462</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>61798</v>
+        <v>61875</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>93165</v>
+        <v>94810</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02118546673363849</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01712235368575969</v>
+        <v>0.01714379800221215</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02581319907481853</v>
+        <v>0.02626901980936977</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>162</v>
@@ -9422,19 +9422,19 @@
         <v>142540</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>121172</v>
+        <v>121379</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>169853</v>
+        <v>170250</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.02025300555465112</v>
+        <v>0.02025300555465111</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01721695411245779</v>
+        <v>0.01724628876957266</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02413377493171277</v>
+        <v>0.02419017252766006</v>
       </c>
     </row>
     <row r="31">
